--- a/기획데이터.xlsx
+++ b/기획데이터.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\교육\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-uruk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA573041-18AB-4AB6-AE16-57ECEB217F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08C5A4E-1011-4CA8-A713-E117B43BE4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="14" activeTab="22" xr2:uid="{B204925F-5C8A-4345-9327-98FEB9AA3823}"/>
+    <workbookView xWindow="41760" yWindow="1540" windowWidth="28800" windowHeight="15500" firstSheet="7" activeTab="11" xr2:uid="{B204925F-5C8A-4345-9327-98FEB9AA3823}"/>
   </bookViews>
   <sheets>
     <sheet name="fish" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,22 @@
     <sheet name="wind_direction" sheetId="18" r:id="rId6"/>
     <sheet name="tide" sheetId="19" r:id="rId7"/>
     <sheet name="fish_price_by_time" sheetId="20" r:id="rId8"/>
-    <sheet name="item" sheetId="3" r:id="rId9"/>
-    <sheet name="item_category" sheetId="4" r:id="rId10"/>
-    <sheet name="payment_method" sheetId="21" r:id="rId11"/>
-    <sheet name="fishing_rod" sheetId="5" r:id="rId12"/>
-    <sheet name="fishing_rod_grade" sheetId="11" r:id="rId13"/>
-    <sheet name="fishing_rod_type" sheetId="14" r:id="rId14"/>
-    <sheet name="fishing_line" sheetId="6" r:id="rId15"/>
-    <sheet name="reel" sheetId="8" r:id="rId16"/>
-    <sheet name="reel_grade" sheetId="22" r:id="rId17"/>
-    <sheet name="fishing_bait" sheetId="9" r:id="rId18"/>
-    <sheet name="fishing_bait_grade" sheetId="10" r:id="rId19"/>
-    <sheet name="fishing_hook" sheetId="7" r:id="rId20"/>
-    <sheet name="upgrade_item" sheetId="12" r:id="rId21"/>
-    <sheet name="bororong_no_24" sheetId="13" r:id="rId22"/>
-    <sheet name="fishing_weight" sheetId="23" r:id="rId23"/>
+    <sheet name="item_map" sheetId="24" r:id="rId9"/>
+    <sheet name="item" sheetId="3" r:id="rId10"/>
+    <sheet name="item_category" sheetId="4" r:id="rId11"/>
+    <sheet name="payment_method" sheetId="21" r:id="rId12"/>
+    <sheet name="fishing_rod" sheetId="5" r:id="rId13"/>
+    <sheet name="fishing_rod_grade" sheetId="11" r:id="rId14"/>
+    <sheet name="fishing_rod_type" sheetId="14" r:id="rId15"/>
+    <sheet name="fishing_line" sheetId="6" r:id="rId16"/>
+    <sheet name="reel" sheetId="8" r:id="rId17"/>
+    <sheet name="reel_grade" sheetId="22" r:id="rId18"/>
+    <sheet name="fishing_bait" sheetId="9" r:id="rId19"/>
+    <sheet name="fishing_bait_grade" sheetId="10" r:id="rId20"/>
+    <sheet name="fishing_hook" sheetId="7" r:id="rId21"/>
+    <sheet name="upgrade_item" sheetId="12" r:id="rId22"/>
+    <sheet name="bororong_no_24" sheetId="13" r:id="rId23"/>
+    <sheet name="fishing_weight" sheetId="23" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="131">
   <si>
     <t>price</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -438,14 +439,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게임머니</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hardness</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -574,6 +567,18 @@
   </si>
   <si>
     <t>돌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피로도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -971,19 +976,19 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="11.08203125" customWidth="1"/>
+    <col min="3" max="3" width="16.08203125" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="31.625" customWidth="1"/>
-    <col min="8" max="8" width="24.125" customWidth="1"/>
+    <col min="5" max="5" width="24.58203125" customWidth="1"/>
+    <col min="6" max="6" width="14.08203125" customWidth="1"/>
+    <col min="7" max="7" width="31.58203125" customWidth="1"/>
+    <col min="8" max="8" width="24.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -1000,7 +1005,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1017,7 +1022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1034,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1059,6 +1064,97 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F7663B-46BD-4450-8D54-5EFB35034D89}">
+  <dimension ref="A13:E16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.58203125" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="16.58203125" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>300</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>500</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>5000</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B498F6-687E-49D4-A3EA-2B82F0F365A2}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -1066,13 +1162,13 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1080,7 +1176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1088,7 +1184,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1096,7 +1192,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1104,7 +1200,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1112,7 +1208,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1120,7 +1216,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1128,56 +1224,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>92</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3F6A1B-0589-4A7E-B4C9-97A95C5C3687}">
-  <dimension ref="A37:B39"/>
-  <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
-    <col min="2" max="2" width="29.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>2</v>
-      </c>
-      <c r="B39" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1187,6 +1239,58 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3F6A1B-0589-4A7E-B4C9-97A95C5C3687}">
+  <dimension ref="A37:B40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20.08203125" customWidth="1"/>
+    <col min="2" max="2" width="29.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7089EB-7911-4C1F-869F-6A85626E871B}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1194,18 +1298,18 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="25.25" customWidth="1"/>
     <col min="4" max="5" width="23.75" customWidth="1"/>
-    <col min="6" max="6" width="26.875" customWidth="1"/>
-    <col min="7" max="7" width="20.125" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.08203125" customWidth="1"/>
     <col min="8" max="8" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1219,19 +1323,19 @@
         <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F1" t="s">
         <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1257,7 +1361,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1283,7 +1387,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1315,7 +1419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B44FB7-E7D7-4214-8B97-55D79A4B7FA5}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1323,7 +1427,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="20.25" customWidth="1"/>
     <col min="2" max="2" width="20.75" customWidth="1"/>
@@ -1331,7 +1435,7 @@
     <col min="4" max="4" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -1342,7 +1446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1353,7 +1457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1364,7 +1468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1381,7 +1485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CC49F8-C93D-4D0B-84FE-F3A44C319585}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1389,13 +1493,13 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19.75" customWidth="1"/>
     <col min="2" max="2" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1403,7 +1507,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1411,7 +1515,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1419,7 +1523,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1433,7 +1537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BB0D48-EEEB-44EE-B149-AACDFA3995BA}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1441,17 +1545,17 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="29.875" customWidth="1"/>
-    <col min="5" max="5" width="31.625" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" customWidth="1"/>
+    <col min="5" max="5" width="31.58203125" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1459,24 +1563,24 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
         <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2">
         <v>500</v>
@@ -1491,12 +1595,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C3">
         <v>500</v>
@@ -1511,12 +1615,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4">
         <v>1500</v>
@@ -1537,7 +1641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9719928E-8CB8-460C-B78A-DE6B715C2E08}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1545,16 +1649,16 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="3" max="3" width="22.08203125" customWidth="1"/>
     <col min="4" max="4" width="17.25" customWidth="1"/>
     <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="20.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1562,21 +1666,21 @@
         <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1588,12 +1692,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1611,7 +1715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468237A6-3B7B-40BF-B923-1167CCDA5B9A}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1619,25 +1723,25 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="22.25" customWidth="1"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
     <col min="3" max="3" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1648,7 +1752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1659,7 +1763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1676,7 +1780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36952E1C-BD0B-42FC-98A1-CD7C875EBDF3}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1684,14 +1788,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="13.08203125" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1702,7 +1806,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1713,7 +1817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1724,7 +1828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1738,72 +1842,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B3D9CE-51BD-48BE-81EC-CF5CB8219CB4}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.75" customWidth="1"/>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="30.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1815,9 +1853,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -1828,7 +1866,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1839,7 +1877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1850,7 +1888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1869,6 +1907,72 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B3D9CE-51BD-48BE-81EC-CF5CB8219CB4}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="25.75" customWidth="1"/>
+    <col min="2" max="2" width="26.58203125" customWidth="1"/>
+    <col min="3" max="3" width="30.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF1766B-BD6D-4B5D-B235-2B9EE4D19536}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1876,16 +1980,16 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="2" width="23.625" customWidth="1"/>
-    <col min="3" max="3" width="25.875" customWidth="1"/>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
-    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="21.08203125" customWidth="1"/>
+    <col min="2" max="2" width="23.58203125" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="4" max="4" width="25.58203125" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1893,18 +1997,18 @@
         <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -1913,12 +2017,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C3">
         <v>40</v>
@@ -1933,7 +2037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D7C556-DC31-48A5-BC14-2962A22905AD}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1941,41 +2045,41 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="19.75" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
         <v>116</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>117</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>120</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -1987,7 +2091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206BD4B5-429F-491C-9949-7A1CC09AD801}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1995,20 +2099,20 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
         <v>121</v>
       </c>
-      <c r="B1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2019,7 +2123,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2030,7 +2134,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2047,55 +2151,55 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E09B61-7D81-45C6-9C73-AD6E0402A95D}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
         <v>124</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>125</v>
-      </c>
-      <c r="C1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>127</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C4">
         <v>1000</v>
@@ -2115,19 +2219,19 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="9.75" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="15.58203125" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="13.58203125" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="17.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -2153,7 +2257,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2179,7 +2283,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2205,7 +2309,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2231,7 +2335,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2271,9 +2375,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -2290,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2307,7 +2411,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2324,7 +2428,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2341,7 +2445,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2372,15 +2476,15 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="20.58203125" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -2397,7 +2501,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2414,7 +2518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2431,7 +2535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2448,7 +2552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2465,7 +2569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2482,7 +2586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2499,7 +2603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2516,7 +2620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2533,7 +2637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2550,7 +2654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2567,7 +2671,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2584,7 +2688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2601,7 +2705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2618,7 +2722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2635,7 +2739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2652,7 +2756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2669,7 +2773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2686,7 +2790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2703,7 +2807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2720,7 +2824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2737,7 +2841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2754,7 +2858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2771,7 +2875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2788,7 +2892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2819,13 +2923,13 @@
       <selection activeCell="B10" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="2" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -2833,7 +2937,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2841,7 +2945,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2849,7 +2953,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2857,7 +2961,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2865,7 +2969,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2873,7 +2977,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2881,7 +2985,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2889,7 +2993,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2911,9 +3015,9 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -2927,7 +3031,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2941,7 +3045,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2955,7 +3059,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2969,7 +3073,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2983,7 +3087,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2997,7 +3101,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2</v>
       </c>
@@ -3011,7 +3115,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2</v>
       </c>
@@ -3025,7 +3129,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2</v>
       </c>
@@ -3039,7 +3143,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>3</v>
       </c>
@@ -3053,7 +3157,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>3</v>
       </c>
@@ -3067,7 +3171,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>3</v>
       </c>
@@ -3081,7 +3185,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>3</v>
       </c>
@@ -3095,7 +3199,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>4</v>
       </c>
@@ -3109,7 +3213,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>4</v>
       </c>
@@ -3123,7 +3227,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>4</v>
       </c>
@@ -3137,7 +3241,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>4</v>
       </c>
@@ -3151,7 +3255,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>5</v>
       </c>
@@ -3165,7 +3269,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>5</v>
       </c>
@@ -3179,7 +3283,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>5</v>
       </c>
@@ -3193,7 +3297,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>5</v>
       </c>
@@ -3207,7 +3311,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>6</v>
       </c>
@@ -3221,7 +3325,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>6</v>
       </c>
@@ -3235,7 +3339,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>6</v>
       </c>
@@ -3249,7 +3353,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>6</v>
       </c>
@@ -3263,7 +3367,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>7</v>
       </c>
@@ -3277,7 +3381,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>7</v>
       </c>
@@ -3291,7 +3395,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>7</v>
       </c>
@@ -3305,7 +3409,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>7</v>
       </c>
@@ -3333,9 +3437,9 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -3349,7 +3453,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3363,7 +3467,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3377,7 +3481,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3398,92 +3502,50 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F7663B-46BD-4450-8D54-5EFB35034D89}">
-  <dimension ref="A13:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8112E5B1-55BF-4EE1-97CB-DDEE47B68AE4}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
         <v>82</v>
       </c>
-      <c r="B13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>300</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>500</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>5000</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>